--- a/заказы/статистика филиалы/2023/11,23/08,11,23 КИ/дв 08,11,23 мррсч.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/08,11,23 КИ/дв 08,11,23 мррсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\08,11,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\08,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860FBBEA-33CE-4F97-A782-D89FBCFEAADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD41402-B5EE-4ABF-8A2E-A469F9A69F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="281" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -463,10 +467,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3228,8 +3232,8 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3794,7 +3798,7 @@
       <c r="F12" s="5">
         <v>157.97200000000001</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <f>164.65+G48</f>
         <v>155.89000000000001</v>
       </c>
@@ -3912,7 +3916,7 @@
       <c r="F14" s="5">
         <v>38.256</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <f>83.78+G49</f>
         <v>80.304000000000002</v>
       </c>
@@ -5088,7 +5092,7 @@
       <c r="U34" s="7">
         <v>0</v>
       </c>
-      <c r="V34" s="22" t="s">
+      <c r="V34" s="23" t="s">
         <v>71</v>
       </c>
       <c r="W34" s="7">
@@ -5868,7 +5872,7 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="23">
+      <c r="G48" s="22">
         <v>-8.76</v>
       </c>
       <c r="H48" s="16">
@@ -5919,7 +5923,7 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <v>-3.476</v>
       </c>
       <c r="H49" s="16">
